--- a/config_debug/xiaoxiaole_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_defen_cfg.xlsx
@@ -1266,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="15">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="15">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="15">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1332,7 +1332,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="15">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1343,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="15">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1357,7 +1360,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="15">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1371,10 +1374,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="15">
-        <v>240000</v>
+        <v>480000</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1385,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1399,10 +1402,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="15">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1413,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="15">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1427,10 +1430,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="15">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
@@ -1441,25 +1444,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="15">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="15">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
@@ -1476,10 +1470,11 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -1542,17 +1537,11 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
       <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="G31" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_debug/xiaoxiaole_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_defen_cfg.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="defenbiao|消消乐得分表" sheetId="5" r:id="rId1"/>
@@ -1268,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1684,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -1729,10 +1729,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F3" s="15"/>
     </row>
@@ -1744,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="2">
-        <v>120000</v>
+        <v>240000</v>
       </c>
       <c r="F4" s="15"/>
     </row>
@@ -1759,10 +1759,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D5" s="2">
         <v>240000</v>
+      </c>
+      <c r="D5" s="14">
+        <v>480000</v>
       </c>
       <c r="F5" s="15"/>
     </row>
@@ -1773,11 +1773,11 @@
       <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>240000</v>
+      <c r="C6" s="14">
+        <v>480000</v>
       </c>
       <c r="D6" s="14">
-        <v>480000</v>
+        <v>900000</v>
       </c>
       <c r="F6" s="15"/>
     </row>
@@ -1789,10 +1789,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="14">
-        <v>480000</v>
+        <v>900000</v>
       </c>
       <c r="D7" s="14">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="F7" s="15"/>
     </row>
@@ -1804,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="14">
-        <v>900000</v>
+        <v>1800000</v>
       </c>
       <c r="D8" s="14">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="F8" s="15"/>
     </row>
@@ -1819,10 +1819,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="14">
-        <v>1800000</v>
+        <v>3600000</v>
       </c>
       <c r="D9" s="14">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
       <c r="F9" s="15"/>
     </row>
@@ -1834,10 +1834,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="14">
-        <v>3600000</v>
+        <v>7200000</v>
       </c>
       <c r="D10" s="14">
-        <v>7200000</v>
+        <v>14400000</v>
       </c>
       <c r="F10" s="15"/>
     </row>
@@ -1849,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="14">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="14">
         <v>14400000</v>
+      </c>
+      <c r="D11">
+        <v>28800000</v>
       </c>
       <c r="F11" s="15"/>
     </row>
@@ -1863,11 +1863,11 @@
       <c r="B12" s="14">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
-        <v>14400000</v>
+      <c r="C12">
+        <v>28800000</v>
       </c>
       <c r="D12">
-        <v>28800000</v>
+        <v>57600000</v>
       </c>
       <c r="F12" s="15"/>
     </row>
@@ -1879,24 +1879,9 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
         <v>57600000</v>
       </c>
       <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
-      <c r="F14" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/xiaoxiaole_defen_cfg.xlsx
+++ b/config_debug/xiaoxiaole_defen_cfg.xlsx
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +233,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1269,7 +1281,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C1" sqref="C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1684,204 +1696,195 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.5" style="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="17">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D2" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>60000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>120000</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>120000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>240000</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="17">
+        <v>300000</v>
+      </c>
+      <c r="D4" s="17">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>240000</v>
-      </c>
-      <c r="D5" s="14">
-        <v>480000</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="17">
+        <v>600000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
-        <v>480000</v>
-      </c>
-      <c r="D6" s="14">
-        <v>900000</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="17">
+        <v>1200000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
-        <v>900000</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1800000</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="17">
+        <v>2400000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="14">
         <v>7</v>
       </c>
-      <c r="C8" s="14">
-        <v>1800000</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3600000</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="17">
+        <v>4800000</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
-        <v>3600000</v>
-      </c>
-      <c r="D9" s="14">
-        <v>7200000</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="17">
+        <v>9600000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>19200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="14">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
-        <v>7200000</v>
-      </c>
-      <c r="D10" s="14">
-        <v>14400000</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C10" s="17">
+        <v>19200000</v>
+      </c>
+      <c r="D10" s="18">
+        <v>51200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
-        <v>14400000</v>
-      </c>
-      <c r="D11">
-        <v>28800000</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="17">
+        <v>51200000</v>
+      </c>
+      <c r="D11" s="19">
+        <v>102400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="14">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>28800000</v>
-      </c>
-      <c r="D12">
-        <v>57600000</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="17">
+        <v>102400000</v>
+      </c>
+      <c r="D12" s="19">
+        <v>204800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="14">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>57600000</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="C13" s="17">
+        <v>204800000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
